--- a/data/sampletesting.xlsx
+++ b/data/sampletesting.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VS CODE\.vscode\PC-Agent\Folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VS CODE\.vscode\PC-Agent\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD03F551-F49A-48F6-92F2-80FE91361BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AB2560-0BBC-4CC7-B205-5938E8D0F074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1418,11 +1418,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1731,7 +1731,7 @@
   <dimension ref="A1:I222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1761,19 +1761,19 @@
       <c r="D1" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>413</v>
       </c>
     </row>
@@ -8150,15 +8150,15 @@
       </c>
     </row>
     <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A222" s="15"/>
-      <c r="B222" s="15"/>
-      <c r="C222" s="15"/>
-      <c r="D222" s="15"/>
-      <c r="E222" s="15"/>
+      <c r="A222" s="14"/>
+      <c r="B222" s="14"/>
+      <c r="C222" s="14"/>
+      <c r="D222" s="14"/>
+      <c r="E222" s="14"/>
       <c r="F222" s="1"/>
-      <c r="G222" s="15"/>
-      <c r="H222" s="15"/>
-      <c r="I222" s="15"/>
+      <c r="G222" s="14"/>
+      <c r="H222" s="14"/>
+      <c r="I222" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
